--- a/2019_2022_resequencing/resequence_combined.xlsx
+++ b/2019_2022_resequencing/resequence_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brookesienkiewicz/Documents/LabNotebook/2019_2022_resequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04E4BD5-0791-9E4A-BA7C-D3C59A2DD338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD6D05B-7561-3141-B564-78D680DFFD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="557">
   <si>
     <t>Tubelabel_species</t>
   </si>
@@ -1692,6 +1692,21 @@
   </si>
   <si>
     <t>8/19 duplicate extracted in box 32</t>
+  </si>
+  <si>
+    <t>check old extract/enrich for higher concentration</t>
+  </si>
+  <si>
+    <t>new extraction is higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no info on old extraction but new is high </t>
+  </si>
+  <si>
+    <t>check old extract/enrich for higher concentration (but new one is enough)</t>
+  </si>
+  <si>
+    <t>use old extraction</t>
   </si>
 </sst>
 </file>
@@ -2621,23 +2636,22 @@
   <dimension ref="A1:AI222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
+      <selection pane="bottomRight" activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="17" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="15" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="9" width="15" customWidth="1"/>
+    <col min="10" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="19.1640625" customWidth="1"/>
     <col min="14" max="30" width="10.83203125" customWidth="1"/>
     <col min="31" max="31" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -2752,190 +2766,199 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>4.83</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>2019</v>
       </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2">
+      <c r="M2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="2">
         <v>217.9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>24.5</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>2.41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AD2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="AI2" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>2.81</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>2019</v>
       </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="2">
         <v>177.9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>29.6</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AD3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="AI3" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>2019</v>
       </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4">
+      <c r="M4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="2">
         <v>353.2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>9.48</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AD4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AD4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AF4" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="2" t="s">
         <v>525</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3921,60 +3944,63 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <v>2019</v>
       </c>
-      <c r="M20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20">
+      <c r="M20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" s="2">
         <v>206.1</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="2">
         <v>14.3</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z20" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AA20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC20" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AD20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AD20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AF20" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AG20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AH20" s="2" t="s">
         <v>525</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4033,143 +4059,149 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.89</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>3.67</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>2019</v>
       </c>
-      <c r="M22" t="s">
-        <v>70</v>
-      </c>
-      <c r="N22">
+      <c r="M22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N22" s="2">
         <v>287.60000000000002</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <v>0.78800000000000003</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="2">
         <v>-16.13</v>
       </c>
-      <c r="U22" t="s">
+      <c r="U22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z22" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AA22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AC22" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AD22" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="s">
+      <c r="AD22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AF22" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AG22" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AH22" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="AI22" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <v>2019</v>
       </c>
-      <c r="M23" t="s">
-        <v>70</v>
-      </c>
-      <c r="N23">
+      <c r="M23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="2">
         <v>240.7</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="2">
         <v>6.52</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AA23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AC23" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AD23" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE23" t="s">
+      <c r="AD23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AF23" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AG23" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AH23" s="2" t="s">
         <v>525</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
@@ -5236,6 +5268,9 @@
       <c r="AH41" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AI41" s="3" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="42" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -6548,66 +6583,69 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="2">
         <v>2019</v>
       </c>
-      <c r="M65" t="s">
-        <v>70</v>
-      </c>
-      <c r="N65">
+      <c r="M65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N65" s="2">
         <v>219.4</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="2">
         <v>19</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="Q65" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="2">
         <v>11.1</v>
       </c>
-      <c r="S65" t="s">
+      <c r="S65" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="T65" t="s">
+      <c r="T65" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="U65">
+      <c r="U65" s="2">
         <v>1</v>
       </c>
-      <c r="V65" t="s">
+      <c r="V65" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W65" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="AC65" t="s">
+      <c r="AC65" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AD65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AE65" t="s">
+      <c r="AE65" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG65" t="s">
+      <c r="AG65" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="AH65" t="s">
+      <c r="AH65" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI65" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>345</v>
       </c>
@@ -6663,7 +6701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>348</v>
       </c>
@@ -6719,7 +6757,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>393</v>
       </c>
@@ -6775,7 +6813,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -6825,7 +6863,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>475</v>
       </c>
@@ -6881,7 +6919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -6922,7 +6960,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -6963,7 +7001,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>143</v>
       </c>
@@ -7025,7 +7063,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -7066,7 +7104,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>91</v>
       </c>
@@ -7128,7 +7166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>187</v>
       </c>
@@ -7190,7 +7228,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -7231,7 +7269,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -7293,7 +7331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>112</v>
       </c>
@@ -7355,7 +7393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>117</v>
       </c>
@@ -11191,116 +11229,122 @@
         <v>525</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="158" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K158" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L158">
+      <c r="L158" s="2">
         <v>2019</v>
       </c>
-      <c r="M158" t="s">
-        <v>70</v>
-      </c>
-      <c r="N158">
+      <c r="M158" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N158" s="2">
         <v>204.1</v>
       </c>
-      <c r="O158" t="s">
+      <c r="O158" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="P158">
+      <c r="P158" s="2">
         <v>33.700000000000003</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="Q158" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="Z158" t="s">
+      <c r="Z158" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="AA158" t="s">
+      <c r="AA158" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC158" t="s">
+      <c r="AC158" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AD158" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE158" t="s">
+      <c r="AD158" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE158" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF158" t="s">
+      <c r="AF158" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AG158" t="s">
+      <c r="AG158" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AH158" t="s">
+      <c r="AH158" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="AI158" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="159" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K159" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L159">
+      <c r="L159" s="2">
         <v>2019</v>
       </c>
-      <c r="M159" t="s">
-        <v>70</v>
-      </c>
-      <c r="N159">
+      <c r="M159" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N159" s="2">
         <v>169.4</v>
       </c>
-      <c r="O159" t="s">
+      <c r="O159" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="P159">
+      <c r="P159" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="Q159" t="s">
+      <c r="Q159" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="Z159" t="s">
+      <c r="Z159" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="AA159" t="s">
+      <c r="AA159" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC159" t="s">
+      <c r="AC159" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AD159" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE159" t="s">
+      <c r="AD159" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE159" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF159" t="s">
+      <c r="AF159" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AG159" t="s">
+      <c r="AG159" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AH159" t="s">
+      <c r="AH159" s="2" t="s">
         <v>525</v>
+      </c>
+      <c r="AI159" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.2">
@@ -13726,60 +13770,60 @@
         <v>49</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row r="208" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H208" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K208" t="s">
+      <c r="K208" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L208">
+      <c r="L208" s="2">
         <v>2022</v>
       </c>
-      <c r="M208" t="s">
-        <v>70</v>
-      </c>
-      <c r="O208" t="s">
+      <c r="M208" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O208" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="P208">
+      <c r="P208" s="2">
         <v>0.27500000000000002</v>
       </c>
-      <c r="Z208" t="s">
+      <c r="Z208" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AA208" t="s">
+      <c r="AA208" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC208" t="s">
+      <c r="AC208" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AD208" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE208" t="s">
+      <c r="AD208" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE208" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF208" t="s">
+      <c r="AF208" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AG208" t="s">
+      <c r="AG208" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AH208" t="s">
+      <c r="AH208" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AI208" t="s">
-        <v>67</v>
+      <c r="AI208" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="209" spans="1:35" x14ac:dyDescent="0.2">
@@ -13896,63 +13940,63 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="211" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H211" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K211" t="s">
+      <c r="K211" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L211">
+      <c r="L211" s="2">
         <v>2022</v>
       </c>
-      <c r="M211" t="s">
-        <v>70</v>
-      </c>
-      <c r="O211" t="s">
+      <c r="M211" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O211" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="P211">
+      <c r="P211" s="2">
         <v>0.495</v>
       </c>
-      <c r="Z211" t="s">
+      <c r="Z211" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AA211" t="s">
+      <c r="AA211" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC211" t="s">
+      <c r="AC211" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AD211" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE211" t="s">
+      <c r="AD211" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE211" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF211" t="s">
+      <c r="AF211" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AG211" t="s">
+      <c r="AG211" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AH211" t="s">
+      <c r="AH211" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AI211" t="s">
-        <v>67</v>
+      <c r="AI211" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="212" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -14107,116 +14151,116 @@
         <v>67</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="214" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H214" t="s">
+      <c r="H214" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K214" t="s">
+      <c r="K214" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L214">
+      <c r="L214" s="2">
         <v>2022</v>
       </c>
-      <c r="M214" t="s">
-        <v>70</v>
-      </c>
-      <c r="O214" t="s">
+      <c r="M214" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O214" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="P214">
+      <c r="P214" s="2">
         <v>0.32400000000000001</v>
       </c>
-      <c r="Z214" t="s">
+      <c r="Z214" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AA214" t="s">
+      <c r="AA214" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC214" t="s">
+      <c r="AC214" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AD214" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE214" t="s">
+      <c r="AD214" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE214" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF214" t="s">
+      <c r="AF214" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG214" t="s">
+      <c r="AG214" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AH214" t="s">
+      <c r="AH214" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AI214" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="AI214" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="215" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H215" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K215" t="s">
+      <c r="K215" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L215">
+      <c r="L215" s="2">
         <v>2019</v>
       </c>
-      <c r="M215" t="s">
-        <v>70</v>
-      </c>
-      <c r="O215" t="s">
+      <c r="M215" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O215" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="P215">
+      <c r="P215" s="2">
         <v>3.19</v>
       </c>
-      <c r="Z215" t="s">
+      <c r="Z215" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="AA215" t="s">
+      <c r="AA215" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC215" t="s">
+      <c r="AC215" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AD215" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE215" t="s">
+      <c r="AD215" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE215" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AG215" t="s">
+      <c r="AG215" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AH215" t="s">
+      <c r="AH215" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AI215" t="s">
-        <v>67</v>
+      <c r="AI215" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="216" spans="1:35" x14ac:dyDescent="0.2">
@@ -14278,54 +14322,57 @@
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="217" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="H217" t="s">
+      <c r="H217" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K217" t="s">
+      <c r="K217" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L217">
+      <c r="L217" s="2">
         <v>2019</v>
       </c>
-      <c r="M217" t="s">
-        <v>70</v>
-      </c>
-      <c r="O217" t="s">
+      <c r="M217" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O217" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="P217">
+      <c r="P217" s="2">
         <v>0.84099999999999997</v>
       </c>
-      <c r="Z217" t="s">
+      <c r="Z217" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="AA217" t="s">
+      <c r="AA217" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC217" t="s">
+      <c r="AC217" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="AD217" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE217" t="s">
+      <c r="AD217" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE217" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF217" t="s">
+      <c r="AF217" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="AG217" t="s">
+      <c r="AG217" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AH217" t="s">
+      <c r="AH217" s="2" t="s">
         <v>525</v>
+      </c>
+      <c r="AI217" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="218" spans="1:35" x14ac:dyDescent="0.2">
@@ -14363,51 +14410,51 @@
         <v>525</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row r="219" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H219" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K219" t="s">
+      <c r="K219" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L219">
+      <c r="L219" s="2">
         <v>2022</v>
       </c>
-      <c r="M219" t="s">
-        <v>70</v>
-      </c>
-      <c r="O219" t="s">
+      <c r="M219" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O219" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="P219">
+      <c r="P219" s="2">
         <v>0.105</v>
       </c>
-      <c r="Z219" t="s">
+      <c r="Z219" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="AC219" t="s">
+      <c r="AC219" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AD219" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE219" t="s">
+      <c r="AD219" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE219" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF219" t="s">
+      <c r="AF219" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AG219" t="s">
+      <c r="AG219" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AH219" t="s">
+      <c r="AH219" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="AI219" t="s">
-        <v>67</v>
+      <c r="AI219" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:35" x14ac:dyDescent="0.2">

--- a/2019_2022_resequencing/resequence_combined.xlsx
+++ b/2019_2022_resequencing/resequence_combined.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brookesienkiewicz/Documents/LabNotebook/2019_2022_resequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD6D05B-7561-3141-B564-78D680DFFD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C489427-FD06-3945-B45D-18EC0B2B6874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42760" yWindow="500" windowWidth="25880" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resequence_combined" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">resequence_combined!$A$1:$AI$222</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">resequence_combined!$A$1:$AI$221</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="559">
   <si>
     <t>Tubelabel_species</t>
   </si>
@@ -1205,9 +1205,6 @@
     <t>052022_BEL_CBC_T3_11_PAST</t>
   </si>
   <si>
-    <t>052022_BEL_CBC_T3_25_PAST</t>
-  </si>
-  <si>
     <t xml:space="preserve">T3_25 2022 LOW </t>
   </si>
   <si>
@@ -1631,9 +1628,6 @@
     <t>310.1 (nanodrop)</t>
   </si>
   <si>
-    <t>previously extracted; see metagenomics tracker; Actual tag 062022_34_T3_25_PAST</t>
-  </si>
-  <si>
     <t xml:space="preserve">previously extracted; see metagenomics tracker; </t>
   </si>
   <si>
@@ -1707,6 +1701,18 @@
   </si>
   <si>
     <t>use old extraction</t>
+  </si>
+  <si>
+    <t>10_6_2024</t>
+  </si>
+  <si>
+    <t>UML_NARWHAL_R2_B30</t>
+  </si>
+  <si>
+    <t>10_9_2024</t>
+  </si>
+  <si>
+    <t>122022_BEL_CBC_T2_107_OANN</t>
   </si>
 </sst>
 </file>
@@ -2636,10 +2642,10 @@
   <dimension ref="A1:AI222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI2" sqref="AI2"/>
+      <selection pane="bottomRight" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2667,25 +2673,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -2771,7 +2777,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>201</v>
@@ -2795,7 +2801,7 @@
         <v>217.9</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P2" s="2">
         <v>24.5</v>
@@ -2816,7 +2822,7 @@
         <v>41</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>41</v>
@@ -2831,16 +2837,16 @@
         <v>45</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>186</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2866,7 +2872,7 @@
         <v>177.9</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P3" s="2">
         <v>29.6</v>
@@ -2875,7 +2881,7 @@
         <v>41</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>41</v>
@@ -2896,10 +2902,10 @@
         <v>186</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2925,7 +2931,7 @@
         <v>353.2</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P4" s="2">
         <v>9.48</v>
@@ -2934,7 +2940,7 @@
         <v>41</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>41</v>
@@ -2955,10 +2961,10 @@
         <v>186</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3391,7 +3397,7 @@
         <v>177</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>178</v>
@@ -3451,7 +3457,7 @@
         <v>45</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG11" s="7" t="s">
         <v>59</v>
@@ -3462,7 +3468,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K12" t="s">
         <v>98</v>
@@ -3519,7 +3525,7 @@
         <v>67</v>
       </c>
       <c r="AG12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH12" t="s">
         <v>80</v>
@@ -3533,7 +3539,7 @@
         <v>190</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C13" s="3">
         <v>15.5</v>
@@ -3631,7 +3637,7 @@
         <v>347.8</v>
       </c>
       <c r="O14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P14">
         <v>22.9</v>
@@ -3646,7 +3652,7 @@
         <v>186</v>
       </c>
       <c r="AH14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -3713,7 +3719,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K16" t="s">
         <v>189</v>
@@ -3770,7 +3776,7 @@
         <v>67</v>
       </c>
       <c r="AG16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH16" t="s">
         <v>80</v>
@@ -3781,7 +3787,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K17" t="s">
         <v>98</v>
@@ -3835,7 +3841,7 @@
         <v>78</v>
       </c>
       <c r="AG17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH17" t="s">
         <v>80</v>
@@ -3926,7 +3932,7 @@
         <v>188.1</v>
       </c>
       <c r="O19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P19">
         <v>12</v>
@@ -3941,7 +3947,7 @@
         <v>186</v>
       </c>
       <c r="AH19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3967,7 +3973,7 @@
         <v>206.1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P20" s="2">
         <v>14.3</v>
@@ -3976,7 +3982,7 @@
         <v>41</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>41</v>
@@ -3997,10 +4003,10 @@
         <v>186</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4038,7 +4044,7 @@
         <v>70</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD21" s="3" t="s">
         <v>44</v>
@@ -4047,7 +4053,7 @@
         <v>45</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG21" s="3" t="s">
         <v>213</v>
@@ -4097,7 +4103,7 @@
         <v>287.60000000000002</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P22" s="2">
         <v>0.78800000000000003</v>
@@ -4118,7 +4124,7 @@
         <v>41</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>41</v>
@@ -4133,30 +4139,30 @@
         <v>45</v>
       </c>
       <c r="AF22" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>186</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI22" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L23" s="2">
         <v>2019</v>
@@ -4168,7 +4174,7 @@
         <v>240.7</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P23" s="2">
         <v>6.52</v>
@@ -4177,7 +4183,7 @@
         <v>41</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>41</v>
@@ -4198,15 +4204,15 @@
         <v>186</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K24" t="s">
         <v>189</v>
@@ -4260,7 +4266,7 @@
         <v>78</v>
       </c>
       <c r="AG24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH24" t="s">
         <v>80</v>
@@ -4268,13 +4274,13 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" t="s">
         <v>476</v>
       </c>
-      <c r="D25" t="s">
-        <v>477</v>
-      </c>
       <c r="K25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L25">
         <v>2019</v>
@@ -4286,7 +4292,7 @@
         <v>324.5</v>
       </c>
       <c r="O25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P25">
         <v>23.8</v>
@@ -4301,7 +4307,7 @@
         <v>186</v>
       </c>
       <c r="AH25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4397,10 +4403,10 @@
         <v>262</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H27" t="s">
         <v>263</v>
@@ -4581,10 +4587,10 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L30">
         <v>2019</v>
@@ -4596,7 +4602,7 @@
         <v>407.9</v>
       </c>
       <c r="O30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P30">
         <v>34.5</v>
@@ -4611,15 +4617,15 @@
         <v>186</v>
       </c>
       <c r="AH30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L31">
         <v>2019</v>
@@ -4631,7 +4637,7 @@
         <v>319.39999999999998</v>
       </c>
       <c r="O31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P31">
         <v>37.4</v>
@@ -4646,7 +4652,7 @@
         <v>186</v>
       </c>
       <c r="AH31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -4732,10 +4738,10 @@
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L33">
         <v>2019</v>
@@ -4747,7 +4753,7 @@
         <v>346.4</v>
       </c>
       <c r="O33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P33">
         <v>35.200000000000003</v>
@@ -4762,15 +4768,15 @@
         <v>186</v>
       </c>
       <c r="AH33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L34">
         <v>2019</v>
@@ -4782,7 +4788,7 @@
         <v>552.29999999999995</v>
       </c>
       <c r="O34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P34">
         <v>44</v>
@@ -4797,7 +4803,7 @@
         <v>186</v>
       </c>
       <c r="AH34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -5102,7 +5108,7 @@
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K39" t="s">
         <v>98</v>
@@ -5159,7 +5165,7 @@
         <v>49</v>
       </c>
       <c r="AG39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH39" t="s">
         <v>80</v>
@@ -5191,22 +5197,22 @@
         <v>9.9</v>
       </c>
       <c r="Q40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R40">
         <v>3.8</v>
       </c>
       <c r="S40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U40">
         <v>1.07</v>
       </c>
       <c r="V40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W40" t="s">
         <v>77</v>
@@ -5226,10 +5232,10 @@
     </row>
     <row r="41" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="C41" s="3">
         <v>8.52</v>
@@ -5237,7 +5243,7 @@
       <c r="D41"/>
       <c r="E41"/>
       <c r="H41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
@@ -5251,7 +5257,26 @@
         <v>70</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>555</v>
+      </c>
+      <c r="R41">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="S41" t="s">
+        <v>556</v>
+      </c>
+      <c r="T41" t="s">
+        <v>557</v>
+      </c>
+      <c r="U41"/>
+      <c r="V41" t="s">
+        <v>500</v>
+      </c>
+      <c r="W41" t="s">
+        <v>44</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>44</v>
@@ -5260,7 +5285,7 @@
         <v>45</v>
       </c>
       <c r="AF41" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG41" s="3" t="s">
         <v>59</v>
@@ -5269,7 +5294,7 @@
         <v>48</v>
       </c>
       <c r="AI41" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5436,13 +5461,13 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L44">
         <v>2019</v>
@@ -5454,7 +5479,7 @@
         <v>281.89999999999998</v>
       </c>
       <c r="O44" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P44">
         <v>41.6</v>
@@ -5466,13 +5491,13 @@
         <v>45</v>
       </c>
       <c r="AG44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AH44" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI44" t="s">
         <v>525</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:35" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -5711,7 +5736,7 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K48" t="s">
         <v>189</v>
@@ -5765,7 +5790,7 @@
         <v>78</v>
       </c>
       <c r="AG48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH48" t="s">
         <v>80</v>
@@ -5976,7 +6001,7 @@
         <v>70</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD52" s="5" t="s">
         <v>44</v>
@@ -5985,7 +6010,7 @@
         <v>45</v>
       </c>
       <c r="AF52" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG52" s="5" t="s">
         <v>186</v>
@@ -6014,7 +6039,7 @@
         <v>70</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD53" s="5" t="s">
         <v>44</v>
@@ -6023,7 +6048,7 @@
         <v>45</v>
       </c>
       <c r="AF53" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG53" s="5" t="s">
         <v>186</v>
@@ -6061,7 +6086,7 @@
         <v>70</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD54" s="4" t="s">
         <v>44</v>
@@ -6102,7 +6127,7 @@
         <v>70</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD55" s="5" t="s">
         <v>44</v>
@@ -6111,7 +6136,7 @@
         <v>45</v>
       </c>
       <c r="AF55" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG55" s="5" t="s">
         <v>186</v>
@@ -6140,7 +6165,7 @@
         <v>70</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD56" s="5" t="s">
         <v>44</v>
@@ -6149,7 +6174,7 @@
         <v>45</v>
       </c>
       <c r="AF56" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG56" s="5" t="s">
         <v>186</v>
@@ -6178,7 +6203,7 @@
         <v>70</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD57" s="5" t="s">
         <v>44</v>
@@ -6187,7 +6212,7 @@
         <v>45</v>
       </c>
       <c r="AF57" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG57" s="5" t="s">
         <v>186</v>
@@ -6216,7 +6241,7 @@
         <v>70</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD58" s="5" t="s">
         <v>44</v>
@@ -6225,7 +6250,7 @@
         <v>45</v>
       </c>
       <c r="AF58" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG58" s="5" t="s">
         <v>186</v>
@@ -6254,7 +6279,7 @@
         <v>70</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD59" s="5" t="s">
         <v>44</v>
@@ -6263,7 +6288,7 @@
         <v>45</v>
       </c>
       <c r="AF59" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AG59" s="5" t="s">
         <v>186</v>
@@ -6441,22 +6466,22 @@
         <v>7.87</v>
       </c>
       <c r="Q62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R62">
         <v>3.6</v>
       </c>
       <c r="S62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U62">
         <v>0.98799999999999999</v>
       </c>
       <c r="V62" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W62" t="s">
         <v>77</v>
@@ -6497,16 +6522,16 @@
         <v>3.49</v>
       </c>
       <c r="Q63" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R63" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U63">
         <v>0.32400000000000001</v>
       </c>
       <c r="V63" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W63" t="s">
         <v>77</v>
@@ -6518,7 +6543,7 @@
         <v>45</v>
       </c>
       <c r="AF63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG63" t="s">
         <v>135</v>
@@ -6550,22 +6575,22 @@
         <v>13</v>
       </c>
       <c r="Q64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R64">
         <v>7.62</v>
       </c>
       <c r="S64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U64">
         <v>0.99199999999999999</v>
       </c>
       <c r="V64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W64" t="s">
         <v>77</v>
@@ -6606,25 +6631,25 @@
         <v>19</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R65" s="2">
         <v>11.1</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U65" s="2">
         <v>1</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W65" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AC65" s="2" t="s">
         <v>290</v>
@@ -6642,7 +6667,7 @@
         <v>60</v>
       </c>
       <c r="AI65" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
@@ -6668,25 +6693,25 @@
         <v>9.58</v>
       </c>
       <c r="Q66" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R66">
         <v>4.74</v>
       </c>
       <c r="S66" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T66" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U66">
         <v>0.59599999999999997</v>
       </c>
       <c r="V66" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W66" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD66" t="s">
         <v>77</v>
@@ -6724,25 +6749,25 @@
         <v>14.7</v>
       </c>
       <c r="Q67" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R67">
         <v>8.1199999999999992</v>
       </c>
       <c r="S67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U67">
         <v>0.59599999999999997</v>
       </c>
       <c r="V67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD67" t="s">
         <v>77</v>
@@ -6759,7 +6784,7 @@
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K68" t="s">
         <v>69</v>
@@ -6780,25 +6805,25 @@
         <v>17.7</v>
       </c>
       <c r="Q68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R68">
         <v>7.58</v>
       </c>
       <c r="S68" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U68">
         <v>1.88</v>
       </c>
       <c r="V68" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD68" t="s">
         <v>77</v>
@@ -6865,7 +6890,7 @@
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K70" t="s">
         <v>69</v>
@@ -6886,25 +6911,25 @@
         <v>34.200000000000003</v>
       </c>
       <c r="Q70" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R70">
         <v>17.2</v>
       </c>
       <c r="S70" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T70" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U70">
         <v>2.2599999999999998</v>
       </c>
       <c r="V70" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W70" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD70" t="s">
         <v>77</v>
@@ -6936,13 +6961,13 @@
         <v>199.9</v>
       </c>
       <c r="O71" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P71">
         <v>0.36099999999999999</v>
       </c>
       <c r="Q71" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD71" t="s">
         <v>44</v>
@@ -6951,13 +6976,13 @@
         <v>45</v>
       </c>
       <c r="AF71" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG71" t="s">
         <v>59</v>
       </c>
       <c r="AH71" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
@@ -6977,13 +7002,13 @@
         <v>264.5</v>
       </c>
       <c r="O72" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P72">
         <v>0.53800000000000003</v>
       </c>
       <c r="Q72" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD72" t="s">
         <v>44</v>
@@ -6992,13 +7017,13 @@
         <v>45</v>
       </c>
       <c r="AF72" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG72" t="s">
         <v>59</v>
       </c>
       <c r="AH72" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
@@ -7080,13 +7105,13 @@
         <v>219.3</v>
       </c>
       <c r="O74" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P74">
         <v>0.90200000000000002</v>
       </c>
       <c r="Q74" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD74" t="s">
         <v>44</v>
@@ -7095,13 +7120,13 @@
         <v>45</v>
       </c>
       <c r="AF74" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG74" t="s">
         <v>79</v>
       </c>
       <c r="AH74" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
@@ -7245,13 +7270,13 @@
         <v>335.5</v>
       </c>
       <c r="O77" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P77">
         <v>9.4E-2</v>
       </c>
       <c r="Q77" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD77" t="s">
         <v>44</v>
@@ -7260,13 +7285,13 @@
         <v>45</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG77" t="s">
         <v>79</v>
       </c>
       <c r="AH77" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
@@ -7472,13 +7497,13 @@
         <v>226</v>
       </c>
       <c r="O81" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P81">
         <v>0.11899999999999999</v>
       </c>
       <c r="Q81" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD81" t="s">
         <v>44</v>
@@ -7487,13 +7512,13 @@
         <v>45</v>
       </c>
       <c r="AF81" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG81" t="s">
         <v>79</v>
       </c>
       <c r="AH81" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
@@ -7551,10 +7576,10 @@
         <v>346</v>
       </c>
       <c r="F83" t="s">
+        <v>495</v>
+      </c>
+      <c r="G83" t="s">
         <v>496</v>
-      </c>
-      <c r="G83" t="s">
-        <v>497</v>
       </c>
       <c r="K83" t="s">
         <v>69</v>
@@ -7696,13 +7721,13 @@
         <v>335.7</v>
       </c>
       <c r="O85" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P85">
         <v>0.218</v>
       </c>
       <c r="Q85" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD85" t="s">
         <v>44</v>
@@ -7711,13 +7736,13 @@
         <v>45</v>
       </c>
       <c r="AF85" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG85" t="s">
         <v>220</v>
       </c>
       <c r="AH85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.2">
@@ -7737,7 +7762,7 @@
         <v>180.4</v>
       </c>
       <c r="O86" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P86" t="s">
         <v>95</v>
@@ -7749,13 +7774,13 @@
         <v>45</v>
       </c>
       <c r="AF86" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG86" t="s">
         <v>220</v>
       </c>
       <c r="AH86" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.2">
@@ -7775,7 +7800,7 @@
         <v>169.8</v>
       </c>
       <c r="O87" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P87" t="s">
         <v>95</v>
@@ -7787,13 +7812,13 @@
         <v>45</v>
       </c>
       <c r="AF87" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG87" t="s">
         <v>220</v>
       </c>
       <c r="AH87" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.2">
@@ -7810,7 +7835,7 @@
         <v>70</v>
       </c>
       <c r="N88" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O88" t="s">
         <v>330</v>
@@ -8005,13 +8030,13 @@
         <v>414</v>
       </c>
       <c r="O91" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P91">
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="Q91" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD91" t="s">
         <v>44</v>
@@ -8020,13 +8045,13 @@
         <v>45</v>
       </c>
       <c r="AF91" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG91" t="s">
         <v>220</v>
       </c>
       <c r="AH91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.2">
@@ -8108,13 +8133,13 @@
         <v>226</v>
       </c>
       <c r="O93" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P93">
         <v>0.88400000000000001</v>
       </c>
       <c r="Q93" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD93" t="s">
         <v>44</v>
@@ -8123,13 +8148,13 @@
         <v>45</v>
       </c>
       <c r="AF93" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG93" t="s">
         <v>220</v>
       </c>
       <c r="AH93" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
@@ -8149,13 +8174,13 @@
         <v>144.30000000000001</v>
       </c>
       <c r="O94" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P94">
         <v>0.16600000000000001</v>
       </c>
       <c r="Q94" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD94" t="s">
         <v>44</v>
@@ -8164,13 +8189,13 @@
         <v>45</v>
       </c>
       <c r="AF94" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG94" t="s">
         <v>220</v>
       </c>
       <c r="AH94" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.2">
@@ -8237,7 +8262,7 @@
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K96" t="s">
         <v>69</v>
@@ -8291,7 +8316,7 @@
         <v>78</v>
       </c>
       <c r="AG96" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AH96" t="s">
         <v>80</v>
@@ -8506,13 +8531,13 @@
         <v>224.8</v>
       </c>
       <c r="O100" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P100">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="Q100" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD100" t="s">
         <v>44</v>
@@ -8521,13 +8546,13 @@
         <v>45</v>
       </c>
       <c r="AF100" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG100" t="s">
         <v>220</v>
       </c>
       <c r="AH100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.2">
@@ -8547,13 +8572,13 @@
         <v>116.8</v>
       </c>
       <c r="O101" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P101">
         <v>0.38800000000000001</v>
       </c>
       <c r="Q101" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD101" t="s">
         <v>44</v>
@@ -8562,13 +8587,13 @@
         <v>45</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG101" t="s">
         <v>135</v>
       </c>
       <c r="AH101" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.2">
@@ -8588,13 +8613,13 @@
         <v>208</v>
       </c>
       <c r="O102" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P102">
         <v>1.07</v>
       </c>
       <c r="Q102" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD102" t="s">
         <v>44</v>
@@ -8606,7 +8631,7 @@
         <v>135</v>
       </c>
       <c r="AH102" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.2">
@@ -8753,13 +8778,13 @@
         <v>220.6</v>
       </c>
       <c r="O105" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P105">
         <v>0.35499999999999998</v>
       </c>
       <c r="Q105" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD105" t="s">
         <v>44</v>
@@ -8768,13 +8793,13 @@
         <v>45</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG105" t="s">
         <v>135</v>
       </c>
       <c r="AH105" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.2">
@@ -8800,25 +8825,25 @@
         <v>22.7</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R106" s="2">
         <v>16.3</v>
       </c>
       <c r="S106" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T106" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U106">
         <v>1.89</v>
       </c>
       <c r="V106" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W106" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD106" t="s">
         <v>77</v>
@@ -8850,13 +8875,13 @@
         <v>272.60000000000002</v>
       </c>
       <c r="O107" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P107">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="Q107" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD107" t="s">
         <v>44</v>
@@ -8865,13 +8890,13 @@
         <v>45</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG107" t="s">
         <v>135</v>
       </c>
       <c r="AH107" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.2">
@@ -8994,7 +9019,7 @@
         <v>144.30000000000001</v>
       </c>
       <c r="O110" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P110" t="s">
         <v>95</v>
@@ -9006,18 +9031,18 @@
         <v>45</v>
       </c>
       <c r="AF110" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG110" t="s">
         <v>135</v>
       </c>
       <c r="AH110" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K111" t="s">
         <v>35</v>
@@ -9032,13 +9057,13 @@
         <v>185.6</v>
       </c>
       <c r="O111" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P111">
         <v>0.314</v>
       </c>
       <c r="Q111" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD111" t="s">
         <v>44</v>
@@ -9047,21 +9072,21 @@
         <v>45</v>
       </c>
       <c r="AF111" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG111" t="s">
         <v>135</v>
       </c>
       <c r="AH111" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="112" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="C112" s="3">
         <v>1.0900000000000001</v>
@@ -9079,7 +9104,7 @@
         <v>70</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AD112" s="3" t="s">
         <v>44</v>
@@ -9088,7 +9113,7 @@
         <v>45</v>
       </c>
       <c r="AF112" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AG112" s="3" t="s">
         <v>186</v>
@@ -9161,10 +9186,10 @@
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K114" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L114">
         <v>2019</v>
@@ -9176,7 +9201,7 @@
         <v>327.9</v>
       </c>
       <c r="O114" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P114">
         <v>41.6</v>
@@ -9191,7 +9216,7 @@
         <v>186</v>
       </c>
       <c r="AH114" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.2">
@@ -9217,25 +9242,25 @@
         <v>6.21</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R115" s="2">
         <v>3.8</v>
       </c>
       <c r="S115" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U115">
         <v>0.39800000000000002</v>
       </c>
       <c r="V115" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W115" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD115" t="s">
         <v>77</v>
@@ -9273,25 +9298,25 @@
         <v>10.8</v>
       </c>
       <c r="Q116" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R116">
         <v>5.16</v>
       </c>
       <c r="S116" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T116" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U116">
         <v>0.95399999999999996</v>
       </c>
       <c r="V116" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W116" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD116" t="s">
         <v>77</v>
@@ -9686,25 +9711,25 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="Q123" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R123">
         <v>4.9400000000000004</v>
       </c>
       <c r="S123" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T123" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U123">
         <v>0.88600000000000001</v>
       </c>
       <c r="V123" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W123" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD123" t="s">
         <v>77</v>
@@ -9742,25 +9767,25 @@
         <v>12</v>
       </c>
       <c r="Q124" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R124">
         <v>7.72</v>
       </c>
       <c r="S124" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T124" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U124">
         <v>1.28</v>
       </c>
       <c r="V124" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W124" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD124" t="s">
         <v>77</v>
@@ -9860,10 +9885,10 @@
         <v>3.99</v>
       </c>
       <c r="Q126" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R126" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AD126" t="s">
         <v>44</v>
@@ -9872,7 +9897,7 @@
         <v>45</v>
       </c>
       <c r="AF126" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG126" t="s">
         <v>135</v>
@@ -9904,19 +9929,19 @@
         <v>7.07</v>
       </c>
       <c r="Q127" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R127">
         <v>1.05</v>
       </c>
       <c r="T127" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U127" t="s">
+        <v>499</v>
+      </c>
+      <c r="V127" t="s">
         <v>500</v>
-      </c>
-      <c r="V127" t="s">
-        <v>501</v>
       </c>
       <c r="W127" t="s">
         <v>77</v>
@@ -10081,22 +10106,22 @@
         <v>4.63</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R130" s="2">
         <v>3.34</v>
       </c>
       <c r="S130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T130" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U130">
         <v>0.40400000000000003</v>
       </c>
       <c r="V130" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W130" t="s">
         <v>77</v>
@@ -10137,25 +10162,25 @@
         <v>9.51</v>
       </c>
       <c r="Q131" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R131">
         <v>4.32</v>
       </c>
       <c r="S131" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T131" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U131">
         <v>0.628</v>
       </c>
       <c r="V131" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W131" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD131" t="s">
         <v>77</v>
@@ -10193,25 +10218,25 @@
         <v>9.86</v>
       </c>
       <c r="Q132" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R132">
         <v>4.46</v>
       </c>
       <c r="S132" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T132" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U132">
         <v>0.308</v>
       </c>
       <c r="V132" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W132" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD132" t="s">
         <v>77</v>
@@ -10249,22 +10274,22 @@
         <v>44.7</v>
       </c>
       <c r="Q133" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R133">
         <v>28</v>
       </c>
       <c r="T133" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U133" t="s">
+        <v>499</v>
+      </c>
+      <c r="V133" t="s">
         <v>500</v>
       </c>
-      <c r="V133" t="s">
-        <v>501</v>
-      </c>
       <c r="W133" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AD133" t="s">
         <v>77</v>
@@ -10386,7 +10411,7 @@
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K137" t="s">
         <v>35</v>
@@ -10599,7 +10624,7 @@
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K143" t="s">
         <v>35</v>
@@ -10655,22 +10680,22 @@
         <v>29.4</v>
       </c>
       <c r="Q144" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R144">
         <v>14.5</v>
       </c>
       <c r="S144" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T144" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U144">
         <v>2.1</v>
       </c>
       <c r="V144" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W144" t="s">
         <v>77</v>
@@ -10711,22 +10736,22 @@
         <v>22.5</v>
       </c>
       <c r="Q145" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R145">
         <v>8.7200000000000006</v>
       </c>
       <c r="S145" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T145" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U145">
         <v>3.56</v>
       </c>
       <c r="V145" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W145" t="s">
         <v>77</v>
@@ -10767,22 +10792,22 @@
         <v>6.21</v>
       </c>
       <c r="Q146" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R146">
         <v>2.58</v>
       </c>
       <c r="S146" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T146" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U146">
         <v>0.39400000000000002</v>
       </c>
       <c r="V146" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W146" t="s">
         <v>77</v>
@@ -10832,22 +10857,22 @@
         <v>34.799999999999997</v>
       </c>
       <c r="Q147" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R147">
         <v>17.7</v>
       </c>
       <c r="S147" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T147" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U147">
         <v>2.2000000000000002</v>
       </c>
       <c r="V147" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W147" t="s">
         <v>77</v>
@@ -10890,7 +10915,7 @@
         <v>356.6</v>
       </c>
       <c r="O148" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P148">
         <v>2.44</v>
@@ -10910,7 +10935,7 @@
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K149" t="s">
         <v>85</v>
@@ -10925,7 +10950,7 @@
         <v>232.7</v>
       </c>
       <c r="O149" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P149">
         <v>1.41</v>
@@ -10945,7 +10970,7 @@
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K150" t="s">
         <v>85</v>
@@ -10960,7 +10985,7 @@
         <v>191.1</v>
       </c>
       <c r="O150" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P150">
         <v>1.21</v>
@@ -10980,7 +11005,7 @@
     </row>
     <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K151" t="s">
         <v>35</v>
@@ -10995,13 +11020,13 @@
         <v>340.1</v>
       </c>
       <c r="O151" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P151">
         <v>3.1</v>
       </c>
       <c r="Q151" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD151" t="s">
         <v>44</v>
@@ -11013,12 +11038,12 @@
         <v>135</v>
       </c>
       <c r="AH151" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K152" t="s">
         <v>85</v>
@@ -11033,7 +11058,7 @@
         <v>213.3</v>
       </c>
       <c r="O152" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P152">
         <v>0.97599999999999998</v>
@@ -11045,7 +11070,7 @@
         <v>45</v>
       </c>
       <c r="AF152" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AG152" t="s">
         <v>135</v>
@@ -11056,10 +11081,10 @@
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K153" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L153">
         <v>2019</v>
@@ -11071,7 +11096,7 @@
         <v>336.2</v>
       </c>
       <c r="O153" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P153">
         <v>40.299999999999997</v>
@@ -11086,15 +11111,15 @@
         <v>186</v>
       </c>
       <c r="AH153" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K154" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L154">
         <v>2019</v>
@@ -11106,7 +11131,7 @@
         <v>181.2</v>
       </c>
       <c r="O154" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P154">
         <v>39.700000000000003</v>
@@ -11121,15 +11146,15 @@
         <v>186</v>
       </c>
       <c r="AH154" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K155" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L155">
         <v>2019</v>
@@ -11141,7 +11166,7 @@
         <v>476</v>
       </c>
       <c r="O155" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P155">
         <v>42</v>
@@ -11156,15 +11181,15 @@
         <v>186</v>
       </c>
       <c r="AH155" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K156" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L156">
         <v>2019</v>
@@ -11176,7 +11201,7 @@
         <v>540.20000000000005</v>
       </c>
       <c r="O156" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P156">
         <v>31.3</v>
@@ -11191,15 +11216,15 @@
         <v>186</v>
       </c>
       <c r="AH156" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K157" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L157">
         <v>2019</v>
@@ -11211,7 +11236,7 @@
         <v>190.9</v>
       </c>
       <c r="O157" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P157">
         <v>35</v>
@@ -11226,15 +11251,15 @@
         <v>186</v>
       </c>
       <c r="AH157" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>95</v>
@@ -11252,16 +11277,16 @@
         <v>204.1</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P158" s="2">
         <v>33.700000000000003</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Z158" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA158" s="2" t="s">
         <v>41</v>
@@ -11282,10 +11307,10 @@
         <v>186</v>
       </c>
       <c r="AH158" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI158" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="159" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11311,16 +11336,16 @@
         <v>169.4</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P159" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Z159" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA159" s="2" t="s">
         <v>41</v>
@@ -11341,15 +11366,15 @@
         <v>186</v>
       </c>
       <c r="AH159" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI159" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K160" t="s">
         <v>85</v>
@@ -11364,13 +11389,13 @@
         <v>221.7</v>
       </c>
       <c r="O160" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P160">
         <v>1.08</v>
       </c>
       <c r="Q160" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD160" t="s">
         <v>44</v>
@@ -11382,15 +11407,15 @@
         <v>186</v>
       </c>
       <c r="AH160" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI160" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K161" t="s">
         <v>85</v>
@@ -11405,13 +11430,13 @@
         <v>253.4</v>
       </c>
       <c r="O161" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P161">
         <v>1.28</v>
       </c>
       <c r="Q161" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD161" t="s">
         <v>44</v>
@@ -11423,15 +11448,15 @@
         <v>186</v>
       </c>
       <c r="AH161" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI161" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K162" t="s">
         <v>85</v>
@@ -11446,13 +11471,13 @@
         <v>313.39999999999998</v>
       </c>
       <c r="O162" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P162">
         <v>1.9</v>
       </c>
       <c r="Q162" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD162" t="s">
         <v>44</v>
@@ -11464,15 +11489,15 @@
         <v>186</v>
       </c>
       <c r="AH162" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI162" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K163" t="s">
         <v>85</v>
@@ -11487,13 +11512,13 @@
         <v>268.89999999999998</v>
       </c>
       <c r="O163" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P163">
         <v>6.77</v>
       </c>
       <c r="Q163" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD163" t="s">
         <v>44</v>
@@ -11505,15 +11530,15 @@
         <v>186</v>
       </c>
       <c r="AH163" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI163" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K164" t="s">
         <v>85</v>
@@ -11528,13 +11553,13 @@
         <v>203.9</v>
       </c>
       <c r="O164" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P164">
         <v>1.56</v>
       </c>
       <c r="Q164" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD164" t="s">
         <v>44</v>
@@ -11546,15 +11571,15 @@
         <v>186</v>
       </c>
       <c r="AH164" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI164" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K165" t="s">
         <v>85</v>
@@ -11569,13 +11594,13 @@
         <v>268.2</v>
       </c>
       <c r="O165" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P165">
         <v>1.2</v>
       </c>
       <c r="Q165" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD165" t="s">
         <v>44</v>
@@ -11587,15 +11612,15 @@
         <v>186</v>
       </c>
       <c r="AH165" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI165" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K166" t="s">
         <v>85</v>
@@ -11610,13 +11635,13 @@
         <v>239.1</v>
       </c>
       <c r="O166" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P166">
         <v>1.88</v>
       </c>
       <c r="Q166" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD166" t="s">
         <v>44</v>
@@ -11628,24 +11653,24 @@
         <v>186</v>
       </c>
       <c r="AH166" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI166" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="167" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="C167" s="3">
         <v>7.28</v>
       </c>
       <c r="H167" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I167"/>
       <c r="J167"/>
@@ -11683,13 +11708,13 @@
         <v>41</v>
       </c>
       <c r="Z167" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AA167" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AC167" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AD167" s="3" t="s">
         <v>44</v>
@@ -11706,10 +11731,10 @@
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>414</v>
+      </c>
+      <c r="B168" t="s">
         <v>415</v>
-      </c>
-      <c r="B168" t="s">
-        <v>416</v>
       </c>
       <c r="H168" t="s">
         <v>387</v>
@@ -11727,13 +11752,13 @@
         <v>395.2</v>
       </c>
       <c r="O168" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P168">
         <v>2.25</v>
       </c>
       <c r="Q168" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD168" t="s">
         <v>44</v>
@@ -11748,18 +11773,18 @@
         <v>186</v>
       </c>
       <c r="AH168" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI168" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>424</v>
+      </c>
+      <c r="B169" t="s">
         <v>425</v>
-      </c>
-      <c r="B169" t="s">
-        <v>426</v>
       </c>
       <c r="K169" t="s">
         <v>85</v>
@@ -11774,13 +11799,13 @@
         <v>154</v>
       </c>
       <c r="O169" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P169">
         <v>1.04</v>
       </c>
       <c r="Q169" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD169" t="s">
         <v>44</v>
@@ -11789,21 +11814,21 @@
         <v>45</v>
       </c>
       <c r="AF169" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG169" t="s">
         <v>186</v>
       </c>
       <c r="AH169" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI169" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K170" t="s">
         <v>85</v>
@@ -11818,13 +11843,13 @@
         <v>267.3</v>
       </c>
       <c r="O170" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P170">
         <v>2.2599999999999998</v>
       </c>
       <c r="Q170" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD170" t="s">
         <v>44</v>
@@ -11836,10 +11861,10 @@
         <v>186</v>
       </c>
       <c r="AH170" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI170" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.2">
@@ -11856,25 +11881,16 @@
         <v>70</v>
       </c>
       <c r="N171">
-        <v>481.3</v>
+        <v>176.6</v>
       </c>
       <c r="O171" t="s">
+        <v>537</v>
+      </c>
+      <c r="P171">
+        <v>1.82</v>
+      </c>
+      <c r="Q171" t="s">
         <v>539</v>
-      </c>
-      <c r="P171">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>541</v>
-      </c>
-      <c r="Z171" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA171" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC171" t="s">
-        <v>169</v>
       </c>
       <c r="AD171" t="s">
         <v>44</v>
@@ -11882,43 +11898,40 @@
       <c r="AE171" t="s">
         <v>45</v>
       </c>
-      <c r="AF171" t="s">
-        <v>544</v>
-      </c>
       <c r="AG171" t="s">
         <v>186</v>
       </c>
       <c r="AH171" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI171" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>429</v>
+        <v>204</v>
       </c>
       <c r="K172" t="s">
         <v>85</v>
       </c>
       <c r="L172">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="M172" t="s">
         <v>70</v>
       </c>
       <c r="N172">
-        <v>176.6</v>
+        <v>217.2</v>
       </c>
       <c r="O172" t="s">
+        <v>537</v>
+      </c>
+      <c r="P172">
+        <v>1.31</v>
+      </c>
+      <c r="Q172" t="s">
         <v>539</v>
-      </c>
-      <c r="P172">
-        <v>1.82</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>541</v>
       </c>
       <c r="AD172" t="s">
         <v>44</v>
@@ -11927,18 +11940,18 @@
         <v>45</v>
       </c>
       <c r="AG172" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="AH172" t="s">
-        <v>509</v>
-      </c>
-      <c r="AI172" s="1" t="s">
-        <v>550</v>
+        <v>508</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>204</v>
+        <v>334</v>
       </c>
       <c r="K173" t="s">
         <v>85</v>
@@ -11950,16 +11963,16 @@
         <v>70</v>
       </c>
       <c r="N173">
-        <v>217.2</v>
+        <v>243.5</v>
       </c>
       <c r="O173" t="s">
+        <v>537</v>
+      </c>
+      <c r="P173">
+        <v>1.75</v>
+      </c>
+      <c r="Q173" t="s">
         <v>539</v>
-      </c>
-      <c r="P173">
-        <v>1.31</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>541</v>
       </c>
       <c r="AD173" t="s">
         <v>44</v>
@@ -11971,15 +11984,15 @@
         <v>59</v>
       </c>
       <c r="AH173" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AI173" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K174" t="s">
         <v>85</v>
@@ -11991,36 +12004,54 @@
         <v>70</v>
       </c>
       <c r="N174">
-        <v>243.5</v>
+        <v>290.3</v>
       </c>
       <c r="O174" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P174">
-        <v>1.75</v>
+        <v>8.35</v>
       </c>
       <c r="Q174" t="s">
-        <v>541</v>
+        <v>544</v>
+      </c>
+      <c r="R174">
+        <v>3.1</v>
+      </c>
+      <c r="S174" t="s">
+        <v>545</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U174">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="V174" t="s">
+        <v>546</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="AD174" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE174" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AG174" t="s">
         <v>59</v>
       </c>
       <c r="AH174" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="AI174" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="K175" t="s">
         <v>85</v>
@@ -12032,34 +12063,34 @@
         <v>70</v>
       </c>
       <c r="N175">
-        <v>290.3</v>
+        <v>233.4</v>
       </c>
       <c r="O175" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P175">
-        <v>8.35</v>
+        <v>8.57</v>
       </c>
       <c r="Q175" t="s">
+        <v>544</v>
+      </c>
+      <c r="R175">
+        <v>2.57</v>
+      </c>
+      <c r="S175" t="s">
+        <v>545</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U175">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="V175" t="s">
         <v>546</v>
       </c>
-      <c r="R175">
-        <v>3.1</v>
-      </c>
-      <c r="S175" t="s">
-        <v>547</v>
-      </c>
-      <c r="T175" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U175">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="V175" t="s">
-        <v>548</v>
-      </c>
       <c r="W175" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD175" t="s">
         <v>77</v>
@@ -12071,15 +12102,15 @@
         <v>59</v>
       </c>
       <c r="AH175" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI175" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="K176" t="s">
         <v>85</v>
@@ -12091,34 +12122,34 @@
         <v>70</v>
       </c>
       <c r="N176">
-        <v>233.4</v>
+        <v>242.7</v>
       </c>
       <c r="O176" t="s">
-        <v>539</v>
-      </c>
-      <c r="P176">
-        <v>8.57</v>
-      </c>
-      <c r="Q176" t="s">
+        <v>537</v>
+      </c>
+      <c r="P176" s="2">
+        <v>5.72</v>
+      </c>
+      <c r="Q176" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="R176" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="S176" t="s">
+        <v>545</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U176">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="V176" t="s">
         <v>546</v>
       </c>
-      <c r="R176">
-        <v>2.57</v>
-      </c>
-      <c r="S176" t="s">
-        <v>547</v>
-      </c>
-      <c r="T176" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U176">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="V176" t="s">
-        <v>548</v>
-      </c>
       <c r="W176" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD176" t="s">
         <v>77</v>
@@ -12127,13 +12158,13 @@
         <v>78</v>
       </c>
       <c r="AG176" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="AH176" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI176" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.2">
@@ -12150,49 +12181,49 @@
         <v>70</v>
       </c>
       <c r="N177">
-        <v>242.7</v>
+        <v>151.6</v>
       </c>
       <c r="O177" t="s">
-        <v>539</v>
-      </c>
-      <c r="P177" s="2">
-        <v>5.72</v>
-      </c>
-      <c r="Q177" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="P177">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>544</v>
+      </c>
+      <c r="R177">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="S177" t="s">
+        <v>545</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U177">
+        <v>6.2E-2</v>
+      </c>
+      <c r="V177" t="s">
         <v>546</v>
       </c>
-      <c r="R177" s="2">
-        <v>2.13</v>
-      </c>
-      <c r="S177" t="s">
-        <v>547</v>
-      </c>
-      <c r="T177" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U177">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="V177" t="s">
-        <v>548</v>
-      </c>
       <c r="W177" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD177" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE177" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AG177" t="s">
         <v>220</v>
       </c>
       <c r="AH177" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI177" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.2">
@@ -12209,34 +12240,34 @@
         <v>70</v>
       </c>
       <c r="N178">
-        <v>151.6</v>
+        <v>201.6</v>
       </c>
       <c r="O178" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P178">
-        <v>1.1599999999999999</v>
+        <v>3.08</v>
       </c>
       <c r="Q178" t="s">
+        <v>544</v>
+      </c>
+      <c r="R178">
+        <v>0.8</v>
+      </c>
+      <c r="S178" t="s">
+        <v>545</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U178">
+        <v>0.47</v>
+      </c>
+      <c r="V178" t="s">
         <v>546</v>
       </c>
-      <c r="R178">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="S178" t="s">
-        <v>547</v>
-      </c>
-      <c r="T178" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U178">
-        <v>6.2E-2</v>
-      </c>
-      <c r="V178" t="s">
-        <v>548</v>
-      </c>
       <c r="W178" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD178" t="s">
         <v>44</v>
@@ -12248,10 +12279,10 @@
         <v>220</v>
       </c>
       <c r="AH178" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI178" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="1:35" x14ac:dyDescent="0.2">
@@ -12268,49 +12299,49 @@
         <v>70</v>
       </c>
       <c r="N179">
-        <v>201.6</v>
+        <v>192</v>
       </c>
       <c r="O179" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P179">
-        <v>3.08</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Q179" t="s">
+        <v>544</v>
+      </c>
+      <c r="R179">
+        <v>1.03</v>
+      </c>
+      <c r="S179" t="s">
+        <v>545</v>
+      </c>
+      <c r="T179" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U179">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="V179" t="s">
         <v>546</v>
       </c>
-      <c r="R179">
-        <v>0.8</v>
-      </c>
-      <c r="S179" t="s">
-        <v>547</v>
-      </c>
-      <c r="T179" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U179">
-        <v>0.47</v>
-      </c>
-      <c r="V179" t="s">
-        <v>548</v>
-      </c>
       <c r="W179" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD179" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE179" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AG179" t="s">
         <v>220</v>
       </c>
       <c r="AH179" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI179" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.2">
@@ -12327,34 +12358,34 @@
         <v>70</v>
       </c>
       <c r="N180">
-        <v>192</v>
+        <v>185.5</v>
       </c>
       <c r="O180" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P180">
-        <v>2.5299999999999998</v>
+        <v>15.6</v>
       </c>
       <c r="Q180" t="s">
+        <v>544</v>
+      </c>
+      <c r="R180">
+        <v>5.01</v>
+      </c>
+      <c r="S180" t="s">
+        <v>545</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U180">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="V180" t="s">
         <v>546</v>
       </c>
-      <c r="R180">
-        <v>1.03</v>
-      </c>
-      <c r="S180" t="s">
-        <v>547</v>
-      </c>
-      <c r="T180" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U180">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="V180" t="s">
-        <v>548</v>
-      </c>
       <c r="W180" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD180" t="s">
         <v>77</v>
@@ -12366,10 +12397,10 @@
         <v>220</v>
       </c>
       <c r="AH180" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AI180" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.2">
@@ -12386,34 +12417,34 @@
         <v>70</v>
       </c>
       <c r="N181">
-        <v>185.5</v>
+        <v>410.3</v>
       </c>
       <c r="O181" t="s">
-        <v>539</v>
-      </c>
-      <c r="P181">
-        <v>15.6</v>
-      </c>
-      <c r="Q181" t="s">
+        <v>523</v>
+      </c>
+      <c r="P181" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="Q181" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="R181" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="S181" t="s">
+        <v>545</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U181">
+        <v>1.34</v>
+      </c>
+      <c r="V181" t="s">
         <v>546</v>
       </c>
-      <c r="R181">
-        <v>5.01</v>
-      </c>
-      <c r="S181" t="s">
-        <v>547</v>
-      </c>
-      <c r="T181" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U181">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="V181" t="s">
-        <v>548</v>
-      </c>
       <c r="W181" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD181" t="s">
         <v>77</v>
@@ -12425,10 +12456,7 @@
         <v>220</v>
       </c>
       <c r="AH181" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI181" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.2">
@@ -12445,46 +12473,28 @@
         <v>70</v>
       </c>
       <c r="N182">
-        <v>410.3</v>
+        <v>156.1</v>
       </c>
       <c r="O182" t="s">
-        <v>524</v>
-      </c>
-      <c r="P182" s="2">
-        <v>21.8</v>
-      </c>
-      <c r="Q182" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="R182" s="2">
-        <v>5.07</v>
-      </c>
-      <c r="S182" t="s">
-        <v>547</v>
-      </c>
-      <c r="T182" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U182">
-        <v>1.34</v>
-      </c>
-      <c r="V182" t="s">
-        <v>548</v>
-      </c>
-      <c r="W182" s="1" t="s">
-        <v>546</v>
+        <v>523</v>
+      </c>
+      <c r="P182">
+        <v>42.6</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>539</v>
       </c>
       <c r="AD182" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE182" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AG182" t="s">
         <v>220</v>
       </c>
       <c r="AH182" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.2">
@@ -12501,16 +12511,16 @@
         <v>70</v>
       </c>
       <c r="N183">
-        <v>156.1</v>
+        <v>327.9</v>
       </c>
       <c r="O183" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P183">
-        <v>42.6</v>
+        <v>27.6</v>
       </c>
       <c r="Q183" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD183" t="s">
         <v>44</v>
@@ -12522,12 +12532,12 @@
         <v>220</v>
       </c>
       <c r="AH183" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="K184" t="s">
         <v>85</v>
@@ -12539,16 +12549,16 @@
         <v>70</v>
       </c>
       <c r="N184">
-        <v>327.9</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="O184" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P184">
-        <v>27.6</v>
+        <v>30.9</v>
       </c>
       <c r="Q184" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AD184" t="s">
         <v>44</v>
@@ -12557,10 +12567,10 @@
         <v>45</v>
       </c>
       <c r="AG184" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="AH184" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.2">
@@ -12577,16 +12587,34 @@
         <v>70</v>
       </c>
       <c r="N185">
-        <v>147.80000000000001</v>
+        <v>166.2</v>
       </c>
       <c r="O185" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P185">
-        <v>30.9</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>541</v>
+        <v>1.79</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R185">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="S185" t="s">
+        <v>545</v>
+      </c>
+      <c r="T185" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U185">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="V185" t="s">
+        <v>546</v>
+      </c>
+      <c r="W185" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="AD185" t="s">
         <v>44</v>
@@ -12598,12 +12626,12 @@
         <v>135</v>
       </c>
       <c r="AH185" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
       <c r="K186" t="s">
         <v>85</v>
@@ -12612,37 +12640,16 @@
         <v>2022</v>
       </c>
       <c r="M186" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N186">
-        <v>166.2</v>
+        <v>227.2</v>
       </c>
       <c r="O186" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="P186">
-        <v>1.79</v>
-      </c>
-      <c r="Q186" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="R186">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="S186" t="s">
-        <v>547</v>
-      </c>
-      <c r="T186" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U186">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="V186" t="s">
-        <v>548</v>
-      </c>
-      <c r="W186" s="1" t="s">
-        <v>546</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="AD186" t="s">
         <v>44</v>
@@ -12650,57 +12657,81 @@
       <c r="AE186" t="s">
         <v>45</v>
       </c>
+      <c r="AF186" t="s">
+        <v>540</v>
+      </c>
       <c r="AG186" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="AH186" t="s">
-        <v>525</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>394</v>
+        <v>300</v>
       </c>
       <c r="K187" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="L187">
         <v>2022</v>
       </c>
       <c r="M187" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N187">
-        <v>227.2</v>
+        <v>176</v>
       </c>
       <c r="O187" t="s">
-        <v>498</v>
+        <v>224</v>
       </c>
       <c r="P187">
-        <v>0.93300000000000005</v>
+        <v>62.2</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>115</v>
+      </c>
+      <c r="R187">
+        <v>13.4</v>
+      </c>
+      <c r="T187" t="s">
+        <v>116</v>
+      </c>
+      <c r="U187" t="s">
+        <v>73</v>
+      </c>
+      <c r="V187" t="s">
+        <v>75</v>
+      </c>
+      <c r="W187" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>76</v>
       </c>
       <c r="AD187" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE187" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF187" t="s">
-        <v>542</v>
+        <v>78</v>
       </c>
       <c r="AG187" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
       <c r="AH187" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="K188" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="L188">
         <v>2022</v>
@@ -12709,32 +12740,23 @@
         <v>70</v>
       </c>
       <c r="N188">
-        <v>176</v>
+        <v>84.1</v>
       </c>
       <c r="O188" t="s">
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="P188">
-        <v>62.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q188" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="R188">
-        <v>13.4</v>
-      </c>
-      <c r="T188" t="s">
-        <v>116</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="U188" t="s">
         <v>73</v>
       </c>
-      <c r="V188" t="s">
-        <v>75</v>
-      </c>
-      <c r="W188" t="s">
-        <v>44</v>
-      </c>
       <c r="Y188" t="s">
         <v>41</v>
       </c>
@@ -12748,15 +12770,18 @@
         <v>78</v>
       </c>
       <c r="AG188" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="AH188" t="s">
         <v>80</v>
       </c>
+      <c r="AI188" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K189" t="s">
         <v>189</v>
@@ -12768,23 +12793,32 @@
         <v>70</v>
       </c>
       <c r="N189">
-        <v>84.1</v>
+        <v>118</v>
       </c>
       <c r="O189" t="s">
         <v>327</v>
       </c>
       <c r="P189">
-        <v>3.8</v>
+        <v>11.1</v>
       </c>
       <c r="Q189" t="s">
         <v>100</v>
       </c>
       <c r="R189">
-        <v>5.0999999999999996</v>
+        <v>1.9</v>
+      </c>
+      <c r="T189" t="s">
+        <v>77</v>
       </c>
       <c r="U189" t="s">
         <v>73</v>
       </c>
+      <c r="V189" t="s">
+        <v>75</v>
+      </c>
+      <c r="W189" t="s">
+        <v>44</v>
+      </c>
       <c r="Y189" t="s">
         <v>41</v>
       </c>
@@ -12803,16 +12837,13 @@
       <c r="AH189" t="s">
         <v>80</v>
       </c>
-      <c r="AI189" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="K190" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="L190">
         <v>2022</v>
@@ -12821,22 +12852,22 @@
         <v>70</v>
       </c>
       <c r="N190">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="O190" t="s">
         <v>327</v>
       </c>
       <c r="P190">
-        <v>11.1</v>
+        <v>26.8</v>
       </c>
       <c r="Q190" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>5.76</v>
       </c>
       <c r="T190" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="U190" t="s">
         <v>73</v>
@@ -12860,7 +12891,7 @@
         <v>78</v>
       </c>
       <c r="AG190" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AH190" t="s">
         <v>80</v>
@@ -12868,7 +12899,7 @@
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K191" t="s">
         <v>98</v>
@@ -12880,19 +12911,19 @@
         <v>70</v>
       </c>
       <c r="N191">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="O191" t="s">
         <v>327</v>
       </c>
       <c r="P191">
-        <v>26.8</v>
+        <v>17.8</v>
       </c>
       <c r="Q191" t="s">
         <v>115</v>
       </c>
-      <c r="R191">
-        <v>5.76</v>
+      <c r="R191" t="s">
+        <v>95</v>
       </c>
       <c r="T191" t="s">
         <v>116</v>
@@ -12927,10 +12958,10 @@
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="K192" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="L192">
         <v>2022</v>
@@ -12939,32 +12970,23 @@
         <v>70</v>
       </c>
       <c r="N192">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="O192" t="s">
-        <v>327</v>
+        <v>224</v>
       </c>
       <c r="P192">
-        <v>17.8</v>
+        <v>41.8</v>
       </c>
       <c r="Q192" t="s">
-        <v>115</v>
-      </c>
-      <c r="R192" t="s">
-        <v>95</v>
-      </c>
-      <c r="T192" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="R192">
+        <v>18.899999999999999</v>
       </c>
       <c r="U192" t="s">
         <v>73</v>
       </c>
-      <c r="V192" t="s">
-        <v>75</v>
-      </c>
-      <c r="W192" t="s">
-        <v>44</v>
-      </c>
       <c r="Y192" t="s">
         <v>41</v>
       </c>
@@ -12977,11 +12999,17 @@
       <c r="AE192" t="s">
         <v>78</v>
       </c>
+      <c r="AF192" t="s">
+        <v>67</v>
+      </c>
       <c r="AG192" t="s">
-        <v>59</v>
+        <v>447</v>
       </c>
       <c r="AH192" t="s">
         <v>80</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="193" spans="1:35" x14ac:dyDescent="0.2">
@@ -12989,7 +13017,7 @@
         <v>450</v>
       </c>
       <c r="K193" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="L193">
         <v>2022</v>
@@ -12998,23 +13026,32 @@
         <v>70</v>
       </c>
       <c r="N193">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="O193" t="s">
         <v>224</v>
       </c>
       <c r="P193">
-        <v>41.8</v>
+        <v>46.1</v>
       </c>
       <c r="Q193" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="R193">
-        <v>18.899999999999999</v>
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="T193" t="s">
+        <v>116</v>
       </c>
       <c r="U193" t="s">
         <v>73</v>
       </c>
+      <c r="V193" t="s">
+        <v>75</v>
+      </c>
+      <c r="W193" t="s">
+        <v>44</v>
+      </c>
       <c r="Y193" t="s">
         <v>41</v>
       </c>
@@ -13031,7 +13068,7 @@
         <v>67</v>
       </c>
       <c r="AG193" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH193" t="s">
         <v>80</v>
@@ -13054,19 +13091,19 @@
         <v>70</v>
       </c>
       <c r="N194">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O194" t="s">
         <v>224</v>
       </c>
       <c r="P194">
-        <v>46.1</v>
+        <v>29.5</v>
       </c>
       <c r="Q194" t="s">
         <v>115</v>
       </c>
       <c r="R194">
-        <v>8.4600000000000009</v>
+        <v>5.96</v>
       </c>
       <c r="T194" t="s">
         <v>116</v>
@@ -13096,7 +13133,7 @@
         <v>67</v>
       </c>
       <c r="AG194" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH194" t="s">
         <v>80</v>
@@ -13107,10 +13144,10 @@
     </row>
     <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="K195" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="L195">
         <v>2022</v>
@@ -13119,60 +13156,30 @@
         <v>70</v>
       </c>
       <c r="N195">
-        <v>180</v>
+        <v>95.1</v>
       </c>
       <c r="O195" t="s">
-        <v>224</v>
+        <v>523</v>
       </c>
       <c r="P195">
-        <v>29.5</v>
-      </c>
-      <c r="Q195" t="s">
-        <v>115</v>
-      </c>
-      <c r="R195">
-        <v>5.96</v>
-      </c>
-      <c r="T195" t="s">
-        <v>116</v>
-      </c>
-      <c r="U195" t="s">
-        <v>73</v>
-      </c>
-      <c r="V195" t="s">
-        <v>75</v>
-      </c>
-      <c r="W195" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y195" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA195" t="s">
-        <v>76</v>
+        <v>2.67</v>
       </c>
       <c r="AD195" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE195" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF195" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AG195" t="s">
-        <v>448</v>
+        <v>135</v>
       </c>
       <c r="AH195" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI195" t="s">
-        <v>67</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="K196" t="s">
         <v>85</v>
@@ -13184,13 +13191,13 @@
         <v>70</v>
       </c>
       <c r="N196">
-        <v>95.1</v>
+        <v>166.7</v>
       </c>
       <c r="O196" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P196">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AD196" t="s">
         <v>44</v>
@@ -13202,12 +13209,12 @@
         <v>135</v>
       </c>
       <c r="AH196" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K197" t="s">
         <v>85</v>
@@ -13219,13 +13226,13 @@
         <v>70</v>
       </c>
       <c r="N197">
-        <v>166.7</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="O197" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P197">
-        <v>2.7</v>
+        <v>34.4</v>
       </c>
       <c r="AD197" t="s">
         <v>44</v>
@@ -13237,7 +13244,7 @@
         <v>135</v>
       </c>
       <c r="AH197" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:35" x14ac:dyDescent="0.2">
@@ -13254,13 +13261,16 @@
         <v>70</v>
       </c>
       <c r="N198">
-        <v>157.19999999999999</v>
+        <v>189.2</v>
       </c>
       <c r="O198" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P198">
-        <v>34.4</v>
+        <v>45.5</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>539</v>
       </c>
       <c r="AD198" t="s">
         <v>44</v>
@@ -13272,12 +13282,12 @@
         <v>135</v>
       </c>
       <c r="AH198" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="K199" t="s">
         <v>85</v>
@@ -13286,19 +13296,16 @@
         <v>2022</v>
       </c>
       <c r="M199" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N199">
-        <v>189.2</v>
+        <v>224.2</v>
       </c>
       <c r="O199" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="P199">
-        <v>45.5</v>
-      </c>
-      <c r="Q199" t="s">
-        <v>541</v>
+        <v>1.25</v>
       </c>
       <c r="AD199" t="s">
         <v>44</v>
@@ -13307,53 +13314,74 @@
         <v>45</v>
       </c>
       <c r="AG199" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="AH199" t="s">
-        <v>509</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="K200" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="L200">
         <v>2022</v>
       </c>
       <c r="M200" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="N200">
-        <v>224.2</v>
+        <v>146</v>
       </c>
       <c r="O200" t="s">
-        <v>498</v>
+        <v>134</v>
       </c>
       <c r="P200">
-        <v>1.25</v>
+        <v>19.3</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>100</v>
+      </c>
+      <c r="R200">
+        <v>11.8</v>
+      </c>
+      <c r="U200" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>76</v>
       </c>
       <c r="AD200" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE200" t="s">
-        <v>45</v>
+        <v>78</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>49</v>
       </c>
       <c r="AG200" t="s">
-        <v>220</v>
+        <v>453</v>
       </c>
       <c r="AH200" t="s">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="AI200" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K201" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="L201">
         <v>2022</v>
@@ -13362,26 +13390,38 @@
         <v>70</v>
       </c>
       <c r="N201">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="O201" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="P201">
-        <v>19.3</v>
+        <v>21</v>
       </c>
       <c r="Q201" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="R201">
-        <v>11.8</v>
+        <v>4</v>
+      </c>
+      <c r="T201" t="s">
+        <v>116</v>
       </c>
       <c r="U201" t="s">
         <v>73</v>
       </c>
+      <c r="V201" t="s">
+        <v>75</v>
+      </c>
+      <c r="W201" t="s">
+        <v>44</v>
+      </c>
       <c r="Y201" t="s">
         <v>41</v>
       </c>
+      <c r="Z201" t="s">
+        <v>456</v>
+      </c>
       <c r="AA201" t="s">
         <v>76</v>
       </c>
@@ -13395,7 +13435,7 @@
         <v>49</v>
       </c>
       <c r="AG201" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AH201" t="s">
         <v>80</v>
@@ -13406,10 +13446,10 @@
     </row>
     <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="K202" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="L202">
         <v>2022</v>
@@ -13418,22 +13458,22 @@
         <v>70</v>
       </c>
       <c r="N202">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="O202" t="s">
         <v>224</v>
       </c>
       <c r="P202">
-        <v>21</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Q202" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="R202">
-        <v>4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="T202" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="U202" t="s">
         <v>73</v>
@@ -13448,7 +13488,7 @@
         <v>41</v>
       </c>
       <c r="Z202" t="s">
-        <v>457</v>
+        <v>324</v>
       </c>
       <c r="AA202" t="s">
         <v>76</v>
@@ -13460,24 +13500,24 @@
         <v>78</v>
       </c>
       <c r="AF202" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AG202" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AH202" t="s">
         <v>80</v>
       </c>
       <c r="AI202" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>467</v>
+        <v>350</v>
       </c>
       <c r="K203" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="L203">
         <v>2022</v>
@@ -13486,63 +13526,33 @@
         <v>70</v>
       </c>
       <c r="N203">
-        <v>163</v>
+        <v>300.7</v>
       </c>
       <c r="O203" t="s">
-        <v>224</v>
+        <v>523</v>
       </c>
       <c r="P203">
-        <v>9.8000000000000007</v>
+        <v>48.1</v>
       </c>
       <c r="Q203" t="s">
-        <v>93</v>
-      </c>
-      <c r="R203">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T203" t="s">
-        <v>77</v>
-      </c>
-      <c r="U203" t="s">
-        <v>73</v>
-      </c>
-      <c r="V203" t="s">
-        <v>75</v>
-      </c>
-      <c r="W203" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y203" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z203" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA203" t="s">
-        <v>76</v>
+        <v>539</v>
       </c>
       <c r="AD203" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AE203" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF203" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AG203" t="s">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AH203" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI203" t="s">
-        <v>67</v>
+        <v>508</v>
       </c>
     </row>
     <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="K204" t="s">
         <v>85</v>
@@ -13554,630 +13564,654 @@
         <v>70</v>
       </c>
       <c r="N204">
-        <v>300.7</v>
+        <v>191.9</v>
       </c>
       <c r="O204" t="s">
-        <v>524</v>
-      </c>
-      <c r="P204">
-        <v>48.1</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>541</v>
+        <v>523</v>
+      </c>
+      <c r="P204" s="2">
+        <v>4.32</v>
+      </c>
+      <c r="Q204" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="R204" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="S204" t="s">
+        <v>545</v>
+      </c>
+      <c r="T204" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U204">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="V204" t="s">
+        <v>546</v>
+      </c>
+      <c r="W204" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="AD204" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE204" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AG204" t="s">
         <v>79</v>
       </c>
       <c r="AH204" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>385</v>
+        <v>509</v>
       </c>
       <c r="K205" t="s">
         <v>85</v>
       </c>
       <c r="L205">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="M205" t="s">
-        <v>70</v>
+        <v>510</v>
       </c>
       <c r="N205">
-        <v>191.9</v>
+        <v>325.5</v>
       </c>
       <c r="O205" t="s">
+        <v>537</v>
+      </c>
+      <c r="P205">
+        <v>5.46</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R205">
+        <v>1.57</v>
+      </c>
+      <c r="S205" t="s">
+        <v>545</v>
+      </c>
+      <c r="T205" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="U205">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="V205" t="s">
+        <v>546</v>
+      </c>
+      <c r="W205" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>511</v>
+      </c>
+      <c r="AG205" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="AH205" t="s">
         <v>524</v>
       </c>
-      <c r="P205" s="2">
-        <v>4.32</v>
-      </c>
-      <c r="Q205" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="R205" s="2">
-        <v>1.29</v>
-      </c>
-      <c r="S205" t="s">
-        <v>547</v>
-      </c>
-      <c r="T205" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U205">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="V205" t="s">
-        <v>548</v>
-      </c>
-      <c r="W205" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="AD205" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE205" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG205" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH205" t="s">
-        <v>525</v>
+      <c r="AI205" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>510</v>
+        <v>50</v>
+      </c>
+      <c r="B206" t="s">
+        <v>514</v>
+      </c>
+      <c r="F206" t="s">
+        <v>51</v>
+      </c>
+      <c r="H206" t="s">
+        <v>51</v>
       </c>
       <c r="K206" t="s">
+        <v>35</v>
+      </c>
+      <c r="L206">
+        <v>2022</v>
+      </c>
+      <c r="M206" t="s">
+        <v>52</v>
+      </c>
+      <c r="N206">
+        <v>133</v>
+      </c>
+      <c r="O206" t="s">
+        <v>53</v>
+      </c>
+      <c r="P206">
+        <v>5.8</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>39</v>
+      </c>
+      <c r="R206">
+        <v>1.7</v>
+      </c>
+      <c r="U206" t="s">
+        <v>37</v>
+      </c>
+      <c r="X206" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="207" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L207" s="2">
+        <v>2022</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="P207" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Z207" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC207" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD207" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE207" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF207" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG207" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH207" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI207" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>458</v>
+      </c>
+      <c r="K208" t="s">
         <v>85</v>
       </c>
-      <c r="L206">
-        <v>2024</v>
-      </c>
-      <c r="M206" t="s">
-        <v>511</v>
-      </c>
-      <c r="N206">
-        <v>325.5</v>
-      </c>
-      <c r="O206" t="s">
-        <v>539</v>
-      </c>
-      <c r="P206">
-        <v>5.46</v>
-      </c>
-      <c r="Q206" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="R206">
-        <v>1.57</v>
-      </c>
-      <c r="S206" t="s">
-        <v>547</v>
-      </c>
-      <c r="T206" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U206">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="V206" t="s">
-        <v>548</v>
-      </c>
-      <c r="W206" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="AD206" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE206" t="s">
+      <c r="L208">
+        <v>2022</v>
+      </c>
+      <c r="M208" t="s">
+        <v>52</v>
+      </c>
+      <c r="N208">
+        <v>191.5</v>
+      </c>
+      <c r="O208" t="s">
+        <v>497</v>
+      </c>
+      <c r="P208">
+        <v>1.21</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE208" t="s">
         <v>45</v>
       </c>
-      <c r="AF206" t="s">
-        <v>512</v>
-      </c>
-      <c r="AG206" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH206" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI206" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>50</v>
-      </c>
-      <c r="B207" t="s">
-        <v>515</v>
-      </c>
-      <c r="F207" t="s">
-        <v>51</v>
-      </c>
-      <c r="H207" t="s">
-        <v>51</v>
-      </c>
-      <c r="K207" t="s">
+      <c r="AG208" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C209" s="3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H209" t="s">
+        <v>473</v>
+      </c>
+      <c r="I209"/>
+      <c r="J209"/>
+      <c r="K209" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L209" s="3">
+        <v>2022</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P209" s="3">
+        <v>72</v>
+      </c>
+      <c r="Q209" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R209" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U209" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X209" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y209" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z209" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA209" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC209" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD209" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE209" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF209" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG209" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH209" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI209" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K210" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L207">
+      <c r="L210" s="2">
         <v>2022</v>
       </c>
-      <c r="M207" t="s">
-        <v>52</v>
-      </c>
-      <c r="N207">
-        <v>133</v>
-      </c>
-      <c r="O207" t="s">
+      <c r="M210" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="P210" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="Z210" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC210" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD210" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE210" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF210" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG210" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH210" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI210" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="211" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="H211" t="s">
+        <v>210</v>
+      </c>
+      <c r="I211"/>
+      <c r="J211">
+        <v>6.83</v>
+      </c>
+      <c r="K211" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L211" s="5">
+        <v>2019</v>
+      </c>
+      <c r="M211" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N211" s="5">
+        <v>177</v>
+      </c>
+      <c r="O211" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="P211" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="Q211" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="R211" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="U211" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X211" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y211" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z211" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA211" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC211" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD211" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE211" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF211" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG211" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH211" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI211" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>61</v>
+      </c>
+      <c r="B212" t="s">
+        <v>62</v>
+      </c>
+      <c r="D212" t="s">
+        <v>63</v>
+      </c>
+      <c r="F212" t="s">
+        <v>64</v>
+      </c>
+      <c r="K212" t="s">
+        <v>35</v>
+      </c>
+      <c r="L212">
+        <v>2022</v>
+      </c>
+      <c r="M212" t="s">
+        <v>36</v>
+      </c>
+      <c r="N212">
+        <v>70</v>
+      </c>
+      <c r="O212" t="s">
         <v>53</v>
       </c>
-      <c r="P207">
-        <v>5.8</v>
-      </c>
-      <c r="Q207" t="s">
+      <c r="P212">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q212" t="s">
         <v>39</v>
       </c>
-      <c r="R207">
-        <v>1.7</v>
-      </c>
-      <c r="U207" t="s">
+      <c r="R212">
+        <v>5.2</v>
+      </c>
+      <c r="U212" t="s">
         <v>37</v>
       </c>
-      <c r="X207" t="s">
+      <c r="X212" t="s">
         <v>40</v>
       </c>
-      <c r="Y207" t="s">
+      <c r="Y212" t="s">
         <v>41</v>
       </c>
-      <c r="Z207" t="s">
+      <c r="Z212" t="s">
         <v>54</v>
       </c>
-      <c r="AA207" t="s">
+      <c r="AA212" t="s">
         <v>41</v>
       </c>
-      <c r="AC207" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD207" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE207" t="s">
+      <c r="AC212" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE212" t="s">
         <v>66</v>
       </c>
-      <c r="AF207" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG207" t="s">
+      <c r="AG212" t="s">
         <v>56</v>
       </c>
-      <c r="AH207" t="s">
+      <c r="AH212" t="s">
         <v>48</v>
       </c>
-      <c r="AI207" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="208" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="AI212" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="213" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K213" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L208" s="2">
+      <c r="L213" s="2">
         <v>2022</v>
       </c>
-      <c r="M208" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O208" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="P208" s="2">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="Z208" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA208" s="2" t="s">
+      <c r="M213" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O213" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="P213" s="2">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Z213" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA213" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC208" s="2" t="s">
+      <c r="AC213" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AD208" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE208" s="2" t="s">
+      <c r="AD213" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE213" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF208" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG208" s="2" t="s">
+      <c r="AF213" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG213" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AH208" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI208" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>459</v>
-      </c>
-      <c r="K209" t="s">
-        <v>85</v>
-      </c>
-      <c r="L209">
-        <v>2022</v>
-      </c>
-      <c r="M209" t="s">
-        <v>52</v>
-      </c>
-      <c r="N209">
-        <v>191.5</v>
-      </c>
-      <c r="O209" t="s">
-        <v>498</v>
-      </c>
-      <c r="P209">
-        <v>1.21</v>
-      </c>
-      <c r="AD209" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE209" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG209" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH209" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="210" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C210" s="3">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H210" t="s">
-        <v>474</v>
-      </c>
-      <c r="I210"/>
-      <c r="J210"/>
-      <c r="K210" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L210" s="3">
-        <v>2022</v>
-      </c>
-      <c r="M210" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N210" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O210" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P210" s="3">
-        <v>72</v>
-      </c>
-      <c r="Q210" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R210" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="U210" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X210" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y210" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z210" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA210" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC210" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD210" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE210" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF210" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AG210" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH210" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI210" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="211" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K211" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L211" s="2">
-        <v>2022</v>
-      </c>
-      <c r="M211" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O211" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="P211" s="2">
-        <v>0.495</v>
-      </c>
-      <c r="Z211" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA211" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC211" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD211" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE211" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF211" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG211" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH211" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI211" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="212" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="H212" t="s">
-        <v>210</v>
-      </c>
-      <c r="I212"/>
-      <c r="J212">
-        <v>6.83</v>
-      </c>
-      <c r="K212" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L212" s="5">
-        <v>2019</v>
-      </c>
-      <c r="M212" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N212" s="5">
-        <v>177</v>
-      </c>
-      <c r="O212" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="P212" s="5">
-        <v>7.1</v>
-      </c>
-      <c r="Q212" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="R212" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="U212" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X212" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y212" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z212" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA212" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC212" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD212" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE212" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF212" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="AG212" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH212" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI212" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>61</v>
-      </c>
-      <c r="B213" t="s">
-        <v>62</v>
-      </c>
-      <c r="D213" t="s">
-        <v>63</v>
-      </c>
-      <c r="F213" t="s">
-        <v>64</v>
-      </c>
-      <c r="K213" t="s">
-        <v>35</v>
-      </c>
-      <c r="L213">
-        <v>2022</v>
-      </c>
-      <c r="M213" t="s">
-        <v>36</v>
-      </c>
-      <c r="N213">
-        <v>70</v>
-      </c>
-      <c r="O213" t="s">
-        <v>53</v>
-      </c>
-      <c r="P213">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>39</v>
-      </c>
-      <c r="R213">
-        <v>5.2</v>
-      </c>
-      <c r="U213" t="s">
-        <v>37</v>
-      </c>
-      <c r="X213" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y213" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z213" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA213" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC213" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD213" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE213" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG213" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH213" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI213" t="s">
-        <v>67</v>
+      <c r="AH213" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI213" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="214" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>149</v>
+        <v>232</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>150</v>
+        <v>235</v>
       </c>
       <c r="K214" s="2" t="s">
         <v>35</v>
       </c>
       <c r="L214" s="2">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="M214" s="2" t="s">
         <v>70</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P214" s="2">
-        <v>0.32400000000000001</v>
+        <v>3.19</v>
       </c>
       <c r="Z214" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA214" s="2" t="s">
         <v>41</v>
@@ -14191,278 +14225,266 @@
       <c r="AE214" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF214" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="AG214" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH214" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI214" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>394</v>
+      </c>
+      <c r="B215" t="s">
+        <v>395</v>
+      </c>
+      <c r="C215">
+        <v>2.38</v>
+      </c>
+      <c r="D215" t="s">
+        <v>396</v>
+      </c>
+      <c r="H215" t="s">
+        <v>397</v>
+      </c>
+      <c r="K215" t="s">
+        <v>85</v>
+      </c>
+      <c r="L215">
+        <v>2019</v>
+      </c>
+      <c r="M215" t="s">
+        <v>70</v>
+      </c>
+      <c r="O215" t="s">
+        <v>534</v>
+      </c>
+      <c r="P215">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="216" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K216" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L216" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M216" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="P216" s="2">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="Z216" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA216" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC216" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD216" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE216" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF216" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="AG216" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH216" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI216" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>421</v>
+      </c>
+      <c r="K217" t="s">
+        <v>85</v>
+      </c>
+      <c r="L217">
+        <v>2019</v>
+      </c>
+      <c r="M217" t="s">
+        <v>70</v>
+      </c>
+      <c r="O217" t="s">
+        <v>534</v>
+      </c>
+      <c r="P217">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="218" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L218" s="2">
+        <v>2022</v>
+      </c>
+      <c r="M218" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O218" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="P218" s="2">
+        <v>0.105</v>
+      </c>
+      <c r="Z218" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC218" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD218" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE218" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF218" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG218" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AH214" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI214" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="215" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K215" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L215" s="2">
-        <v>2019</v>
-      </c>
-      <c r="M215" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O215" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="P215" s="2">
-        <v>3.19</v>
-      </c>
-      <c r="Z215" s="2" t="s">
+      <c r="AH218" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI218" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>337</v>
+      </c>
+      <c r="H219" t="s">
+        <v>338</v>
+      </c>
+      <c r="K219" t="s">
+        <v>85</v>
+      </c>
+      <c r="L219">
+        <v>2022</v>
+      </c>
+      <c r="M219" t="s">
+        <v>70</v>
+      </c>
+      <c r="O219" t="s">
+        <v>534</v>
+      </c>
+      <c r="P219">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Z219" t="s">
         <v>533</v>
       </c>
-      <c r="AA215" s="2" t="s">
+      <c r="AA219" t="s">
         <v>41</v>
       </c>
-      <c r="AC215" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD215" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE215" s="2" t="s">
+      <c r="AC219" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE219" t="s">
         <v>45</v>
       </c>
-      <c r="AG215" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH215" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI215" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>395</v>
-      </c>
-      <c r="B216" t="s">
-        <v>396</v>
-      </c>
-      <c r="C216">
-        <v>2.38</v>
-      </c>
-      <c r="D216" t="s">
-        <v>397</v>
-      </c>
-      <c r="H216" t="s">
-        <v>398</v>
-      </c>
-      <c r="K216" t="s">
-        <v>85</v>
-      </c>
-      <c r="L216">
-        <v>2019</v>
-      </c>
-      <c r="M216" t="s">
-        <v>70</v>
-      </c>
-      <c r="O216" t="s">
-        <v>536</v>
-      </c>
-      <c r="P216">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="Z216" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA216" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC216" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD216" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE216" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF216" t="s">
-        <v>400</v>
-      </c>
-      <c r="AG216" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH216" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI216" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="217" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="K217" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L217" s="2">
-        <v>2019</v>
-      </c>
-      <c r="M217" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O217" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="P217" s="2">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="Z217" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA217" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC217" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="AD217" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE217" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF217" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG217" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH217" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI217" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>422</v>
-      </c>
-      <c r="K218" t="s">
-        <v>85</v>
-      </c>
-      <c r="L218">
-        <v>2019</v>
-      </c>
-      <c r="M218" t="s">
-        <v>70</v>
-      </c>
-      <c r="O218" t="s">
-        <v>536</v>
-      </c>
-      <c r="P218">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="AD218" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE218" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF218" t="s">
-        <v>545</v>
-      </c>
-      <c r="AG218" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH218" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="219" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K219" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L219" s="2">
-        <v>2022</v>
-      </c>
-      <c r="M219" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O219" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="P219" s="2">
-        <v>0.105</v>
-      </c>
-      <c r="Z219" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="AC219" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD219" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE219" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF219" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG219" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH219" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI219" s="2" t="s">
-        <v>552</v>
+      <c r="AF219" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="H220" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="K220" t="s">
         <v>85</v>
@@ -14473,20 +14495,14 @@
       <c r="M220" t="s">
         <v>70</v>
       </c>
+      <c r="N220">
+        <v>176.9</v>
+      </c>
       <c r="O220" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="P220">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="Z220" t="s">
-        <v>535</v>
-      </c>
-      <c r="AA220" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC220" t="s">
-        <v>339</v>
+        <v>3.58</v>
       </c>
       <c r="AD220" t="s">
         <v>44</v>
@@ -14494,25 +14510,16 @@
       <c r="AE220" t="s">
         <v>45</v>
       </c>
-      <c r="AF220" t="s">
-        <v>340</v>
-      </c>
       <c r="AG220" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AH220" t="s">
-        <v>525</v>
-      </c>
-      <c r="AI220" t="s">
-        <v>341</v>
+        <v>524</v>
       </c>
     </row>
     <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>386</v>
-      </c>
-      <c r="H221" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="K221" t="s">
         <v>85</v>
@@ -14521,61 +14528,37 @@
         <v>2022</v>
       </c>
       <c r="M221" t="s">
-        <v>70</v>
-      </c>
-      <c r="N221">
-        <v>176.9</v>
-      </c>
-      <c r="O221" t="s">
-        <v>536</v>
-      </c>
-      <c r="P221">
-        <v>3.58</v>
+        <v>52</v>
       </c>
       <c r="AD221" t="s">
         <v>44</v>
       </c>
       <c r="AE221" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>355</v>
       </c>
       <c r="AG221" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH221" t="s">
-        <v>525</v>
+        <v>79</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>354</v>
-      </c>
-      <c r="K222" t="s">
-        <v>85</v>
-      </c>
-      <c r="L222">
-        <v>2022</v>
-      </c>
-      <c r="M222" t="s">
-        <v>52</v>
+        <v>558</v>
       </c>
       <c r="AD222" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AE222" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF222" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG222" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI222" t="s">
-        <v>355</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI222" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AI221" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
